--- a/assets/downloads/Config Maker 2025.04.29 EN by KJ.xlsx
+++ b/assets/downloads/Config Maker 2025.04.29 EN by KJ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epitafr-my.sharepoint.com/personal/kevin_jamet_epita_fr/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8795743B-6861-4592-85CA-2EA5E6CBCD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCFCB686-DF70-493A-899D-CFF412B93C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="780" windowWidth="12800" windowHeight="15160" xr2:uid="{8947F335-7243-4BC9-9D88-00188AB47FC0}"/>
+    <workbookView xWindow="60" yWindow="780" windowWidth="25480" windowHeight="15160" xr2:uid="{8947F335-7243-4BC9-9D88-00188AB47FC0}"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG 1" sheetId="1" r:id="rId1"/>
@@ -282,9 +282,6 @@
     <t>OS</t>
   </si>
   <si>
-    <t>CONFIG NAME</t>
-  </si>
-  <si>
     <t>Screen</t>
   </si>
   <si>
@@ -346,6 +343,9 @@
   </si>
   <si>
     <t>04/29/2025</t>
+  </si>
+  <si>
+    <t>CONFIG MAKER</t>
   </si>
 </sst>
 </file>
@@ -824,18 +824,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -872,19 +860,22 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -894,36 +885,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -948,6 +909,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2162,6 +2162,396 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Breakdown of total budget</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12506222771594649"/>
+          <c:y val="3.3388816613314949E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.7242433306809013E-2"/>
+          <c:y val="0.11869081207427783"/>
+          <c:w val="0.4198532159293098"/>
+          <c:h val="0.81920787637677239"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3C09-4DFD-BA01-E73B5E086065}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3C09-4DFD-BA01-E73B5E086065}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3C09-4DFD-BA01-E73B5E086065}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'CONFIG 1'!$A$34:$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>PC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SETUP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OPTS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CONFIG 1'!$B$34:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "€"</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3C09-4DFD-BA01-E73B5E086065}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="127000">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.64256826722697191"/>
+          <c:y val="0.46642674964520386"/>
+          <c:w val="6.0612174143021461E-2"/>
+          <c:h val="0.15084366283329662"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
@@ -2200,6 +2590,43 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent4"/>
@@ -2754,6 +3181,523 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="brightRoom" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat">
+        <a:bevelT w="50800" h="101600" prst="angle"/>
+        <a:contourClr>
+          <a:srgbClr val="000000"/>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4644,15 +5588,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>20380</xdr:rowOff>
+      <xdr:colOff>27165</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>28530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>456122</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>22895</xdr:rowOff>
+      <xdr:colOff>476496</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>31045</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4682,15 +5626,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>27165</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>8150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>456122</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>2515</xdr:rowOff>
+      <xdr:colOff>476496</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>10665</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4712,6 +5656,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>441606</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>13580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Chart 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199C0B91-D18B-4D02-B1DD-6AA9ED0A973B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6572,136 +7554,32 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>Processeur</v>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>PC</v>
           </cell>
-          <cell r="H4">
+          <cell r="B34">
             <v>0</v>
           </cell>
         </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>Carte Mère</v>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>SETUP</v>
           </cell>
-          <cell r="H5">
+          <cell r="B35">
             <v>0</v>
           </cell>
         </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>RAM</v>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>OPTS</v>
           </cell>
-          <cell r="H6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>Refroidissement Processeur</v>
-          </cell>
-          <cell r="H7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>SSD</v>
-          </cell>
-          <cell r="H8">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>SSD 2</v>
-          </cell>
-          <cell r="H9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>Carte Graphique</v>
-          </cell>
-          <cell r="H10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>Boîtier</v>
-          </cell>
-          <cell r="H11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>Alimentation</v>
-          </cell>
-          <cell r="H12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>Système d'exploitation</v>
-          </cell>
-          <cell r="H13">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>Écran</v>
-          </cell>
-          <cell r="H17">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>Écran 2</v>
-          </cell>
-          <cell r="H18">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>Clavier</v>
-          </cell>
-          <cell r="H19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>Souris</v>
-          </cell>
-          <cell r="H20">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>Casque</v>
-          </cell>
-          <cell r="H21">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>Tapis de Souris</v>
-          </cell>
-          <cell r="H22">
+          <cell r="B36">
             <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7026,7 +7904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF3D32E-9FFB-480D-9074-7649C0A05B73}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -7043,52 +7921,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="A1" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
+      <c r="A2" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="57"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>8</v>
@@ -7306,16 +8184,16 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -7323,22 +8201,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>8</v>
@@ -7347,7 +8225,7 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="13"/>
       <c r="B17" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
@@ -7368,7 +8246,7 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="13"/>
       <c r="B18" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
@@ -7389,7 +8267,7 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="13"/>
       <c r="B19" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
@@ -7410,7 +8288,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
       <c r="B20" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
@@ -7431,7 +8309,7 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="13"/>
       <c r="B21" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
@@ -7452,7 +8330,7 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="13"/>
       <c r="B22" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
@@ -7471,16 +8349,16 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
       <c r="I24" s="45"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -7488,28 +8366,28 @@
         <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I25" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -7612,18 +8490,18 @@
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="F33" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="53"/>
+      <c r="A33" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="F33" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="49"/>
     </row>
     <row r="34" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
@@ -7633,17 +8511,17 @@
         <f>SUM(H4:H13)</f>
         <v>0</v>
       </c>
-      <c r="C34" s="49">
+      <c r="C34" s="61">
         <f>B37-B38</f>
         <v>0</v>
       </c>
-      <c r="D34" s="49"/>
+      <c r="D34" s="61"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="H34" s="47"/>
-      <c r="I34" s="48"/>
+      <c r="G34" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" s="59"/>
+      <c r="I34" s="60"/>
     </row>
     <row r="35" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
@@ -7653,14 +8531,14 @@
         <f>SUM(H17:H22)</f>
         <v>0</v>
       </c>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="H35" s="47"/>
-      <c r="I35" s="48"/>
+      <c r="G35" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="H35" s="59"/>
+      <c r="I35" s="60"/>
     </row>
     <row r="36" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
@@ -7670,14 +8548,14 @@
         <f>SUM(H26:H28)</f>
         <v>0</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="H36" s="47"/>
-      <c r="I36" s="48"/>
+      <c r="G36" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" s="59"/>
+      <c r="I36" s="60"/>
     </row>
     <row r="37" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
@@ -7687,14 +8565,14 @@
         <f>B34+B35+B36</f>
         <v>0</v>
       </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="H37" s="47"/>
-      <c r="I37" s="48"/>
+      <c r="G37" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" s="59"/>
+      <c r="I37" s="60"/>
     </row>
     <row r="38" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
@@ -7703,8 +8581,8 @@
       <c r="B38" s="43">
         <v>0</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
     </row>
     <row r="39" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7717,11 +8595,16 @@
     </row>
     <row r="41" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="C34:D38"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="F33:I33"/>
     <mergeCell ref="A33:D33"/>
@@ -7729,11 +8612,6 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="A24:H24"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="C34:D38"/>
   </mergeCells>
   <conditionalFormatting sqref="B37">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
@@ -7819,30 +8697,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59">
+      <c r="A2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="55">
         <v>45491</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="57"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -7869,15 +8747,15 @@
       <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="74" t="s">
+      <c r="K3" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="17"/>
@@ -7899,13 +8777,13 @@
         <f>(E4*F4)+G4</f>
         <v>147.92999999999998</v>
       </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
@@ -7927,15 +8805,15 @@
         <f t="shared" ref="H5:H13" si="0">(E5*F5)+G5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="75" t="s">
+      <c r="K5" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
@@ -7957,15 +8835,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K6" s="76" t="s">
+      <c r="K6" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="17"/>
@@ -7987,15 +8865,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K7" s="77" t="s">
+      <c r="K7" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="17"/>
@@ -8017,15 +8895,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="78" t="s">
+      <c r="K8" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
@@ -8047,15 +8925,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="79" t="s">
+      <c r="K9" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="79"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="17"/>
@@ -8077,15 +8955,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="87" t="s">
+      <c r="K10" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="87"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="17"/>
@@ -8107,15 +8985,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="62" t="s">
+      <c r="K11" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="80"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="17"/>
@@ -8160,16 +9038,16 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
@@ -8219,14 +9097,14 @@
         <v>0</v>
       </c>
       <c r="K17" s="16"/>
-      <c r="L17" s="63" t="s">
+      <c r="L17" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
@@ -8248,14 +9126,14 @@
         <v>0</v>
       </c>
       <c r="K18" s="22"/>
-      <c r="L18" s="63" t="s">
+      <c r="L18" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="17"/>
@@ -8341,26 +9219,26 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="K24" s="80" t="s">
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="K24" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="80"/>
-      <c r="Q24" s="80"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
@@ -8390,15 +9268,15 @@
       <c r="I25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K25" s="81" t="s">
+      <c r="K25" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="L25" s="82"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="82"/>
-      <c r="O25" s="82"/>
-      <c r="P25" s="82"/>
-      <c r="Q25" s="83"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="70"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="17"/>
@@ -8424,15 +9302,15 @@
         <f>H26-H4</f>
         <v>-147.92999999999998</v>
       </c>
-      <c r="K26" s="84" t="s">
+      <c r="K26" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="L26" s="85"/>
-      <c r="M26" s="85"/>
-      <c r="N26" s="85"/>
-      <c r="O26" s="85"/>
-      <c r="P26" s="85"/>
-      <c r="Q26" s="86"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="73"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="17"/>
@@ -8458,15 +9336,15 @@
         <f t="shared" ref="I27:I30" si="2">H27-0</f>
         <v>0</v>
       </c>
-      <c r="K27" s="67" t="s">
+      <c r="K27" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="69"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="66"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="17"/>
@@ -8492,15 +9370,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K28" s="67" t="s">
+      <c r="K28" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="69"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="65"/>
+      <c r="Q28" s="66"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="17"/>
@@ -8526,15 +9404,15 @@
         <f>H29-0</f>
         <v>0</v>
       </c>
-      <c r="K29" s="67" t="s">
+      <c r="K29" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="L29" s="68"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="68"/>
-      <c r="O29" s="68"/>
-      <c r="P29" s="68"/>
-      <c r="Q29" s="69"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="65"/>
+      <c r="Q29" s="66"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="17"/>
@@ -8560,55 +9438,55 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K30" s="67" t="s">
+      <c r="K30" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="69"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="65"/>
+      <c r="P30" s="65"/>
+      <c r="Q30" s="66"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C31" s="4"/>
       <c r="I31" s="5"/>
-      <c r="K31" s="70" t="s">
+      <c r="K31" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="72"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="86"/>
+      <c r="P31" s="86"/>
+      <c r="Q31" s="87"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C32" s="4"/>
       <c r="I32" s="5"/>
-      <c r="K32" s="64" t="s">
+      <c r="K32" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="65"/>
-      <c r="O32" s="65"/>
-      <c r="P32" s="65"/>
-      <c r="Q32" s="66"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="83"/>
+      <c r="N32" s="83"/>
+      <c r="O32" s="83"/>
+      <c r="P32" s="83"/>
+      <c r="Q32" s="84"/>
     </row>
     <row r="33" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="F33" s="51" t="s">
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="F33" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="53"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="49"/>
     </row>
     <row r="34" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
@@ -8617,14 +9495,14 @@
       <c r="B34" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="46" t="s">
+      <c r="G34" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="H34" s="47"/>
-      <c r="I34" s="48"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="60"/>
     </row>
     <row r="35" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
@@ -8633,14 +9511,14 @@
       <c r="B35" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="46" t="s">
+      <c r="G35" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="47"/>
-      <c r="I35" s="48"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="60"/>
     </row>
     <row r="36" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
@@ -8649,14 +9527,14 @@
       <c r="B36" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H36" s="47"/>
-      <c r="I36" s="48"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="60"/>
     </row>
     <row r="37" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
@@ -8665,14 +9543,14 @@
       <c r="B37" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="46" t="s">
+      <c r="G37" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="47"/>
-      <c r="I37" s="48"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="60"/>
     </row>
     <row r="38" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
@@ -8681,8 +9559,8 @@
       <c r="B38" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
     </row>
     <row r="39" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8700,6 +9578,29 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="C34:D38"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
     <mergeCell ref="K8:Q8"/>
     <mergeCell ref="K9:Q9"/>
     <mergeCell ref="K27:Q27"/>
@@ -8709,29 +9610,6 @@
     <mergeCell ref="K25:Q25"/>
     <mergeCell ref="K26:Q26"/>
     <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="C34:D38"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A24:I24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C40" r:id="rId1" xr:uid="{DEFCB1FC-5A4C-4669-B8BE-6F0E263F6A35}"/>

--- a/assets/downloads/Config Maker 2025.04.29 EN by KJ.xlsx
+++ b/assets/downloads/Config Maker 2025.04.29 EN by KJ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epitafr-my.sharepoint.com/personal/kevin_jamet_epita_fr/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCFCB686-DF70-493A-899D-CFF412B93C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17649DC4-5150-4E71-A669-C15E8F1D39C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="780" windowWidth="25480" windowHeight="15160" xr2:uid="{8947F335-7243-4BC9-9D88-00188AB47FC0}"/>
   </bookViews>
@@ -16,9 +16,6 @@
     <sheet name="CONFIG 1" sheetId="1" r:id="rId1"/>
     <sheet name="MANUEL" sheetId="3" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -172,9 +169,6 @@
   </si>
   <si>
     <t>BUDG.</t>
-  </si>
-  <si>
-    <t>CONFIG MAKER v2024.9.24</t>
   </si>
   <si>
     <t>by KJ</t>
@@ -346,6 +340,9 @@
   </si>
   <si>
     <t>CONFIG MAKER</t>
+  </si>
+  <si>
+    <t>CONFIG MAKER v2025.4.29</t>
   </si>
 </sst>
 </file>
@@ -2377,7 +2374,7 @@
             </c:txPr>
             <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
@@ -7542,49 +7539,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="CONFIG 1"/>
-      <sheetName val="MANUEL"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>PC</v>
-          </cell>
-          <cell r="B34">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>SETUP</v>
-          </cell>
-          <cell r="B35">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>OPTS</v>
-          </cell>
-          <cell r="B36">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7904,7 +7858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF3D32E-9FFB-480D-9074-7649C0A05B73}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -7922,7 +7876,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
@@ -7934,11 +7888,11 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="54"/>
       <c r="C2" s="55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" s="56"/>
       <c r="E2" s="56"/>
@@ -7951,22 +7905,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>8</v>
@@ -7976,7 +7930,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="36"/>
       <c r="B4" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
@@ -7997,7 +7951,7 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="36"/>
       <c r="B5" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -8039,7 +7993,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="36"/>
       <c r="B7" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
@@ -8102,7 +8056,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="36"/>
       <c r="B10" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
@@ -8123,7 +8077,7 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="36"/>
       <c r="B11" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
@@ -8144,7 +8098,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="36"/>
       <c r="B12" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="39"/>
@@ -8165,7 +8119,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="36"/>
       <c r="B13" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="39"/>
@@ -8201,22 +8155,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>8</v>
@@ -8225,7 +8179,7 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="13"/>
       <c r="B17" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
@@ -8246,7 +8200,7 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="13"/>
       <c r="B18" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
@@ -8267,7 +8221,7 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="13"/>
       <c r="B19" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
@@ -8288,7 +8242,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
       <c r="B20" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
@@ -8309,7 +8263,7 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="13"/>
       <c r="B21" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
@@ -8330,7 +8284,7 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="13"/>
       <c r="B22" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
@@ -8366,28 +8320,28 @@
         <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I25" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -8491,13 +8445,13 @@
     </row>
     <row r="33" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B33" s="50"/>
       <c r="C33" s="50"/>
       <c r="D33" s="50"/>
       <c r="F33" s="47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G33" s="48"/>
       <c r="H33" s="48"/>
@@ -8518,7 +8472,7 @@
       <c r="D34" s="61"/>
       <c r="F34" s="7"/>
       <c r="G34" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H34" s="59"/>
       <c r="I34" s="60"/>
@@ -8535,7 +8489,7 @@
       <c r="D35" s="61"/>
       <c r="F35" s="8"/>
       <c r="G35" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H35" s="59"/>
       <c r="I35" s="60"/>
@@ -8552,7 +8506,7 @@
       <c r="D36" s="61"/>
       <c r="F36" s="9"/>
       <c r="G36" s="58" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H36" s="59"/>
       <c r="I36" s="60"/>
@@ -8569,7 +8523,7 @@
       <c r="D37" s="61"/>
       <c r="F37" s="10"/>
       <c r="G37" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H37" s="59"/>
       <c r="I37" s="60"/>
@@ -8587,15 +8541,15 @@
     <row r="39" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="15" t="s">
         <v>44</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -8698,7 +8652,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
@@ -8748,7 +8702,7 @@
         <v>8</v>
       </c>
       <c r="K3" s="75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L3" s="75"/>
       <c r="M3" s="75"/>
@@ -8806,7 +8760,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L5" s="76"/>
       <c r="M5" s="76"/>
@@ -8836,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L6" s="77"/>
       <c r="M6" s="77"/>
@@ -8866,7 +8820,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="78" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L7" s="78"/>
       <c r="M7" s="78"/>
@@ -8896,7 +8850,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L8" s="62"/>
       <c r="M8" s="62"/>
@@ -8926,7 +8880,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L9" s="63"/>
       <c r="M9" s="63"/>
@@ -8956,7 +8910,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L10" s="74"/>
       <c r="M10" s="74"/>
@@ -8986,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="80" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L11" s="80"/>
       <c r="M11" s="80"/>
@@ -9098,7 +9052,7 @@
       </c>
       <c r="K17" s="16"/>
       <c r="L17" s="81" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M17" s="81"/>
       <c r="N17" s="81"/>
@@ -9127,7 +9081,7 @@
       </c>
       <c r="K18" s="22"/>
       <c r="L18" s="81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M18" s="81"/>
       <c r="N18" s="81"/>
@@ -9231,7 +9185,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="46"/>
       <c r="K24" s="67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L24" s="67"/>
       <c r="M24" s="67"/>
@@ -9269,7 +9223,7 @@
         <v>27</v>
       </c>
       <c r="K25" s="68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L25" s="69"/>
       <c r="M25" s="69"/>
@@ -9303,7 +9257,7 @@
         <v>-147.92999999999998</v>
       </c>
       <c r="K26" s="71" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L26" s="72"/>
       <c r="M26" s="72"/>
@@ -9337,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L27" s="65"/>
       <c r="M27" s="65"/>
@@ -9371,7 +9325,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L28" s="65"/>
       <c r="M28" s="65"/>
@@ -9405,7 +9359,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L29" s="65"/>
       <c r="M29" s="65"/>
@@ -9439,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L30" s="65"/>
       <c r="M30" s="65"/>
@@ -9452,7 +9406,7 @@
       <c r="C31" s="4"/>
       <c r="I31" s="5"/>
       <c r="K31" s="85" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L31" s="86"/>
       <c r="M31" s="86"/>
@@ -9465,7 +9419,7 @@
       <c r="C32" s="4"/>
       <c r="I32" s="5"/>
       <c r="K32" s="82" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L32" s="83"/>
       <c r="M32" s="83"/>
@@ -9493,7 +9447,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="79"/>
       <c r="D34" s="79"/>
@@ -9509,7 +9463,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="79"/>
       <c r="D35" s="79"/>
@@ -9525,7 +9479,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="79"/>
       <c r="D36" s="79"/>
@@ -9541,7 +9495,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" s="79"/>
       <c r="D37" s="79"/>
@@ -9557,7 +9511,7 @@
         <v>43</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C38" s="79"/>
       <c r="D38" s="79"/>
@@ -9565,15 +9519,15 @@
     <row r="39" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/assets/downloads/Config Maker 2025.04.29 EN by KJ.xlsx
+++ b/assets/downloads/Config Maker 2025.04.29 EN by KJ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epitafr-my.sharepoint.com/personal/kevin_jamet_epita_fr/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17649DC4-5150-4E71-A669-C15E8F1D39C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60F480F3-C572-4946-92AD-CC8F51051C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="780" windowWidth="25480" windowHeight="15160" xr2:uid="{8947F335-7243-4BC9-9D88-00188AB47FC0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="107">
   <si>
     <t>Dernière MAJ</t>
   </si>
@@ -344,17 +344,33 @@
   <si>
     <t>CONFIG MAKER v2025.4.29</t>
   </si>
+  <si>
+    <t xml:space="preserve">MONTHLY PAYMENTS								</t>
+  </si>
+  <si>
+    <t>Reference price</t>
+  </si>
+  <si>
+    <t>Nb monthly pay</t>
+  </si>
+  <si>
+    <t>Monthly Payment</t>
+  </si>
+  <si>
+    <t>% monthly pay</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[Red]\▲\ 0.00;[Green]\ \▼\ 0.00"/>
     <numFmt numFmtId="165" formatCode="[Red]\▲\ 0.00;[Color50]\ \▼\ 0.00"/>
     <numFmt numFmtId="166" formatCode="0\x;#\x"/>
     <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="168" formatCode="[Red]\▲\ #,##0.00&quot; €&quot;;[Color50]\ \▼\ #,##0.00&quot; €&quot;"/>
+    <numFmt numFmtId="169" formatCode="[Color50]\ \▼\ #,##0.00&quot; %&quot;;[Red]\▲\ #,##0.00&quot; %&quot;"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -447,7 +463,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -550,8 +566,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -717,12 +739,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -821,6 +854,18 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -857,22 +902,19 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -882,6 +924,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -908,51 +980,271 @@
     <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="169" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -7856,7 +8148,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF3D32E-9FFB-480D-9074-7649C0A05B73}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -7875,30 +8167,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="57"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -8138,16 +8430,16 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -8303,16 +8595,16 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
       <c r="I24" s="45"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -8444,18 +8736,18 @@
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="F33" s="47" t="s">
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="F33" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="49"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="53"/>
     </row>
     <row r="34" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
@@ -8465,17 +8757,17 @@
         <f>SUM(H4:H13)</f>
         <v>0</v>
       </c>
-      <c r="C34" s="61">
+      <c r="C34" s="49">
         <f>B37-B38</f>
         <v>0</v>
       </c>
-      <c r="D34" s="61"/>
+      <c r="D34" s="49"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="58" t="s">
+      <c r="G34" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="H34" s="59"/>
-      <c r="I34" s="60"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="48"/>
     </row>
     <row r="35" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
@@ -8485,14 +8777,14 @@
         <f>SUM(H17:H22)</f>
         <v>0</v>
       </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="58" t="s">
+      <c r="G35" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="H35" s="59"/>
-      <c r="I35" s="60"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="48"/>
     </row>
     <row r="36" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
@@ -8502,14 +8794,14 @@
         <f>SUM(H26:H28)</f>
         <v>0</v>
       </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="58" t="s">
+      <c r="G36" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="H36" s="59"/>
-      <c r="I36" s="60"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="48"/>
     </row>
     <row r="37" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
@@ -8519,14 +8811,14 @@
         <f>B34+B35+B36</f>
         <v>0</v>
       </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="58" t="s">
+      <c r="G37" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="H37" s="59"/>
-      <c r="I37" s="60"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="48"/>
     </row>
     <row r="38" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
@@ -8535,8 +8827,8 @@
       <c r="B38" s="43">
         <v>0</v>
       </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
     </row>
     <row r="39" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8552,13 +8844,170 @@
         <v>98</v>
       </c>
     </row>
+    <row r="44" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="44"/>
+      <c r="B45" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="90"/>
+      <c r="E45" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="91"/>
+      <c r="G45" s="92"/>
+      <c r="H45" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="I45" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A46" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="41">
+        <f>B34</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="94">
+        <v>0</v>
+      </c>
+      <c r="D46" s="95">
+        <v>1</v>
+      </c>
+      <c r="E46" s="96">
+        <v>0</v>
+      </c>
+      <c r="F46" s="96">
+        <f t="shared" ref="F46:G48" si="4">F34</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="97"/>
+      <c r="H46" s="98" t="e">
+        <f>100-(I46*100/B46)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I46" s="41">
+        <f>C46*E46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A47" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="41">
+        <f>B35</f>
+        <v>0</v>
+      </c>
+      <c r="C47" s="94">
+        <v>0</v>
+      </c>
+      <c r="D47" s="95">
+        <v>1</v>
+      </c>
+      <c r="E47" s="96">
+        <v>0</v>
+      </c>
+      <c r="F47" s="96">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="97"/>
+      <c r="H47" s="98" t="e">
+        <f t="shared" ref="H47:H48" si="5">100-(I47*100/B47)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I47" s="41">
+        <f t="shared" ref="I47:I48" si="6">C47*E47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A48" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="41">
+        <f>B36</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="94">
+        <v>0</v>
+      </c>
+      <c r="D48" s="95">
+        <v>1</v>
+      </c>
+      <c r="E48" s="96">
+        <v>0</v>
+      </c>
+      <c r="F48" s="96">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="99"/>
+      <c r="H48" s="98" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I48" s="41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="100">
+        <f>I46+I47+I48</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="100"/>
+    </row>
+    <row r="50" spans="3:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="100"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="C34:D38"/>
+  <mergeCells count="24">
+    <mergeCell ref="C49:G50"/>
+    <mergeCell ref="H49:I50"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="F33:I33"/>
     <mergeCell ref="A33:D33"/>
@@ -8566,28 +9015,70 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="A24:H24"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="C34:D38"/>
   </mergeCells>
   <conditionalFormatting sqref="B37">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="23" operator="lessThan">
       <formula>$B$38</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="24" operator="greaterThan">
       <formula>$B$38</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>$B$38</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
       <formula>$B$38</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="28" operator="greaterThan">
       <formula>$B$38</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="29" operator="lessThan">
       <formula>$B$38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="lessThan">
+      <formula>$B$38</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
+      <formula>$B$38</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>$B$38</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>$B$38</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="greaterThan">
+      <formula>$B$38</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="lessThan">
+      <formula>$B$38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49:I50">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$B$38</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>$B$38</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>$B$38</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>$B$37</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -8651,30 +9142,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55">
+      <c r="A2" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="59">
         <v>45491</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="57"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -8701,15 +9192,15 @@
       <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="75" t="s">
+      <c r="K3" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="17"/>
@@ -8731,13 +9222,13 @@
         <f>(E4*F4)+G4</f>
         <v>147.92999999999998</v>
       </c>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
@@ -8759,15 +9250,15 @@
         <f t="shared" ref="H5:H13" si="0">(E5*F5)+G5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="76" t="s">
+      <c r="K5" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
@@ -8789,15 +9280,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K6" s="77" t="s">
+      <c r="K6" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="17"/>
@@ -8819,15 +9310,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K7" s="78" t="s">
+      <c r="K7" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="78"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="17"/>
@@ -8849,15 +9340,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="62" t="s">
+      <c r="K8" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
@@ -8879,15 +9370,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="63" t="s">
+      <c r="K9" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="79"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="17"/>
@@ -8909,15 +9400,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="74" t="s">
+      <c r="K10" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="17"/>
@@ -8939,15 +9430,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="80" t="s">
+      <c r="K11" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="80"/>
-      <c r="Q11" s="80"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="17"/>
@@ -8992,16 +9483,16 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
@@ -9051,14 +9542,14 @@
         <v>0</v>
       </c>
       <c r="K17" s="16"/>
-      <c r="L17" s="81" t="s">
+      <c r="L17" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
@@ -9080,14 +9571,14 @@
         <v>0</v>
       </c>
       <c r="K18" s="22"/>
-      <c r="L18" s="81" t="s">
+      <c r="L18" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="17"/>
@@ -9173,26 +9664,26 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="K24" s="67" t="s">
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="K24" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="80"/>
+      <c r="Q24" s="80"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
@@ -9222,15 +9713,15 @@
       <c r="I25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K25" s="68" t="s">
+      <c r="K25" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="70"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="82"/>
+      <c r="O25" s="82"/>
+      <c r="P25" s="82"/>
+      <c r="Q25" s="83"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="17"/>
@@ -9256,15 +9747,15 @@
         <f>H26-H4</f>
         <v>-147.92999999999998</v>
       </c>
-      <c r="K26" s="71" t="s">
+      <c r="K26" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="73"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="85"/>
+      <c r="N26" s="85"/>
+      <c r="O26" s="85"/>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="86"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="17"/>
@@ -9290,15 +9781,15 @@
         <f t="shared" ref="I27:I30" si="2">H27-0</f>
         <v>0</v>
       </c>
-      <c r="K27" s="64" t="s">
+      <c r="K27" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="66"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="69"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="17"/>
@@ -9324,15 +9815,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K28" s="64" t="s">
+      <c r="K28" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="65"/>
-      <c r="Q28" s="66"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="69"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="17"/>
@@ -9358,15 +9849,15 @@
         <f>H29-0</f>
         <v>0</v>
       </c>
-      <c r="K29" s="64" t="s">
+      <c r="K29" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="65"/>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="66"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="69"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="17"/>
@@ -9392,55 +9883,55 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K30" s="64" t="s">
+      <c r="K30" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="65"/>
-      <c r="O30" s="65"/>
-      <c r="P30" s="65"/>
-      <c r="Q30" s="66"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="68"/>
+      <c r="Q30" s="69"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C31" s="4"/>
       <c r="I31" s="5"/>
-      <c r="K31" s="85" t="s">
+      <c r="K31" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="L31" s="86"/>
-      <c r="M31" s="86"/>
-      <c r="N31" s="86"/>
-      <c r="O31" s="86"/>
-      <c r="P31" s="86"/>
-      <c r="Q31" s="87"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="72"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C32" s="4"/>
       <c r="I32" s="5"/>
-      <c r="K32" s="82" t="s">
+      <c r="K32" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="83"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="83"/>
-      <c r="Q32" s="84"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="65"/>
+      <c r="O32" s="65"/>
+      <c r="P32" s="65"/>
+      <c r="Q32" s="66"/>
     </row>
     <row r="33" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="F33" s="47" t="s">
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="F33" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="49"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="53"/>
     </row>
     <row r="34" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
@@ -9449,14 +9940,14 @@
       <c r="B34" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="58" t="s">
+      <c r="G34" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="H34" s="59"/>
-      <c r="I34" s="60"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="48"/>
     </row>
     <row r="35" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
@@ -9465,14 +9956,14 @@
       <c r="B35" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="58" t="s">
+      <c r="G35" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="59"/>
-      <c r="I35" s="60"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="48"/>
     </row>
     <row r="36" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
@@ -9481,14 +9972,14 @@
       <c r="B36" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="58" t="s">
+      <c r="G36" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="H36" s="59"/>
-      <c r="I36" s="60"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="48"/>
     </row>
     <row r="37" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
@@ -9497,14 +9988,14 @@
       <c r="B37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="58" t="s">
+      <c r="G37" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="59"/>
-      <c r="I37" s="60"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="48"/>
     </row>
     <row r="38" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
@@ -9513,8 +10004,8 @@
       <c r="B38" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
     </row>
     <row r="39" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9532,29 +10023,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="C34:D38"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
     <mergeCell ref="K8:Q8"/>
     <mergeCell ref="K9:Q9"/>
     <mergeCell ref="K27:Q27"/>
@@ -9564,6 +10032,29 @@
     <mergeCell ref="K25:Q25"/>
     <mergeCell ref="K26:Q26"/>
     <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="C34:D38"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A24:I24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C40" r:id="rId1" xr:uid="{DEFCB1FC-5A4C-4669-B8BE-6F0E263F6A35}"/>

--- a/assets/downloads/Config Maker 2025.04.29 EN by KJ.xlsx
+++ b/assets/downloads/Config Maker 2025.04.29 EN by KJ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epitafr-my.sharepoint.com/personal/kevin_jamet_epita_fr/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60F480F3-C572-4946-92AD-CC8F51051C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7045B6FA-6755-4053-9D49-798E4899F8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="780" windowWidth="25480" windowHeight="15160" xr2:uid="{8947F335-7243-4BC9-9D88-00188AB47FC0}"/>
   </bookViews>
@@ -854,17 +854,47 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -876,9 +906,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -902,19 +929,22 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -924,36 +954,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -980,61 +980,51 @@
     <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1067,111 +1057,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8167,30 +8057,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -8430,16 +8320,16 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -8595,16 +8485,16 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
       <c r="I24" s="45"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -8736,18 +8626,18 @@
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="F33" s="51" t="s">
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="F33" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="53"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="63"/>
     </row>
     <row r="34" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
@@ -8757,17 +8647,17 @@
         <f>SUM(H4:H13)</f>
         <v>0</v>
       </c>
-      <c r="C34" s="49">
+      <c r="C34" s="74">
         <f>B37-B38</f>
         <v>0</v>
       </c>
-      <c r="D34" s="49"/>
+      <c r="D34" s="74"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="46" t="s">
+      <c r="G34" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="H34" s="47"/>
-      <c r="I34" s="48"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="73"/>
     </row>
     <row r="35" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
@@ -8777,14 +8667,14 @@
         <f>SUM(H17:H22)</f>
         <v>0</v>
       </c>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="46" t="s">
+      <c r="G35" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="H35" s="47"/>
-      <c r="I35" s="48"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="73"/>
     </row>
     <row r="36" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
@@ -8794,14 +8684,14 @@
         <f>SUM(H26:H28)</f>
         <v>0</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="H36" s="47"/>
-      <c r="I36" s="48"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="73"/>
     </row>
     <row r="37" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
@@ -8811,14 +8701,14 @@
         <f>B34+B35+B36</f>
         <v>0</v>
       </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="46" t="s">
+      <c r="G37" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="H37" s="47"/>
-      <c r="I37" s="48"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="73"/>
     </row>
     <row r="38" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
@@ -8827,8 +8717,8 @@
       <c r="B38" s="43">
         <v>0</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
     </row>
     <row r="39" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8845,32 +8735,32 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="54" t="s">
+      <c r="A44" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
-      <c r="B45" s="88" t="s">
+      <c r="B45" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="89" t="s">
+      <c r="C45" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="D45" s="90"/>
-      <c r="E45" s="91" t="s">
+      <c r="D45" s="52"/>
+      <c r="E45" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="F45" s="91"/>
-      <c r="G45" s="92"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="54"/>
       <c r="H45" s="44" t="s">
         <v>106</v>
       </c>
@@ -8879,28 +8769,28 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A46" s="93" t="s">
+      <c r="A46" s="47" t="s">
         <v>35</v>
       </c>
       <c r="B46" s="41">
         <f>B34</f>
         <v>0</v>
       </c>
-      <c r="C46" s="94">
-        <v>0</v>
-      </c>
-      <c r="D46" s="95">
+      <c r="C46" s="57">
+        <v>0</v>
+      </c>
+      <c r="D46" s="58">
         <v>1</v>
       </c>
-      <c r="E46" s="96">
-        <v>0</v>
-      </c>
-      <c r="F46" s="96">
-        <f t="shared" ref="F46:G48" si="4">F34</f>
-        <v>0</v>
-      </c>
-      <c r="G46" s="97"/>
-      <c r="H46" s="98" t="e">
+      <c r="E46" s="59">
+        <v>0</v>
+      </c>
+      <c r="F46" s="59">
+        <f t="shared" ref="F46:F48" si="4">F34</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="55"/>
+      <c r="H46" s="48" t="e">
         <f>100-(I46*100/B46)</f>
         <v>#DIV/0!</v>
       </c>
@@ -8917,21 +8807,21 @@
         <f>B35</f>
         <v>0</v>
       </c>
-      <c r="C47" s="94">
-        <v>0</v>
-      </c>
-      <c r="D47" s="95">
+      <c r="C47" s="57">
+        <v>0</v>
+      </c>
+      <c r="D47" s="58">
         <v>1</v>
       </c>
-      <c r="E47" s="96">
-        <v>0</v>
-      </c>
-      <c r="F47" s="96">
+      <c r="E47" s="59">
+        <v>0</v>
+      </c>
+      <c r="F47" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G47" s="97"/>
-      <c r="H47" s="98" t="e">
+      <c r="G47" s="55"/>
+      <c r="H47" s="48" t="e">
         <f t="shared" ref="H47:H48" si="5">100-(I47*100/B47)</f>
         <v>#DIV/0!</v>
       </c>
@@ -8948,21 +8838,21 @@
         <f>B36</f>
         <v>0</v>
       </c>
-      <c r="C48" s="94">
-        <v>0</v>
-      </c>
-      <c r="D48" s="95">
+      <c r="C48" s="57">
+        <v>0</v>
+      </c>
+      <c r="D48" s="58">
         <v>1</v>
       </c>
-      <c r="E48" s="96">
-        <v>0</v>
-      </c>
-      <c r="F48" s="96">
+      <c r="E48" s="59">
+        <v>0</v>
+      </c>
+      <c r="F48" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G48" s="99"/>
-      <c r="H48" s="98" t="e">
+      <c r="G48" s="56"/>
+      <c r="H48" s="48" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -8972,30 +8862,42 @@
       </c>
     </row>
     <row r="49" spans="3:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C49" s="54" t="s">
+      <c r="C49" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="100">
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="50">
         <f>I46+I47+I48</f>
         <v>0</v>
       </c>
-      <c r="I49" s="100"/>
+      <c r="I49" s="50"/>
     </row>
     <row r="50" spans="3:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="100"/>
-      <c r="I50" s="100"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="C34:D38"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A24:H24"/>
     <mergeCell ref="C49:G50"/>
     <mergeCell ref="H49:I50"/>
     <mergeCell ref="A44:I44"/>
@@ -9008,39 +8910,27 @@
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="E48:F48"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="C34:D38"/>
   </mergeCells>
   <conditionalFormatting sqref="B37">
-    <cfRule type="cellIs" dxfId="28" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="23" operator="lessThan">
       <formula>$B$38</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="24" operator="greaterThan">
       <formula>$B$38</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="25" operator="equal">
       <formula>$B$38</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="26" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="27" operator="equal">
       <formula>$B$38</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="28" operator="greaterThan">
       <formula>$B$38</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="29" operator="lessThan">
       <formula>$B$38</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9068,16 +8958,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49:I50">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>$B$38</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>$B$38</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>$B$38</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
       <formula>$B$37</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9087,6 +8977,12 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="28" max="16383" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="9" max="1048575" man="1"/>
+  </colBreaks>
   <drawing r:id="rId4"/>
   <legacyDrawing r:id="rId5"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9142,30 +9038,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
     </row>
     <row r="2" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59">
+      <c r="A2" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68">
         <v>45491</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -9192,15 +9088,15 @@
       <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="74" t="s">
+      <c r="K3" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="17"/>
@@ -9222,13 +9118,13 @@
         <f>(E4*F4)+G4</f>
         <v>147.92999999999998</v>
       </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
@@ -9250,15 +9146,15 @@
         <f t="shared" ref="H5:H13" si="0">(E5*F5)+G5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="75" t="s">
+      <c r="K5" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
@@ -9280,15 +9176,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K6" s="76" t="s">
+      <c r="K6" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="17"/>
@@ -9310,15 +9206,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K7" s="77" t="s">
+      <c r="K7" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="17"/>
@@ -9340,15 +9236,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="78" t="s">
+      <c r="K8" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
@@ -9370,15 +9266,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="79" t="s">
+      <c r="K9" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="79"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="17"/>
@@ -9430,15 +9326,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="62" t="s">
+      <c r="K11" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="17"/>
@@ -9483,16 +9379,16 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
@@ -9542,14 +9438,14 @@
         <v>0</v>
       </c>
       <c r="K17" s="16"/>
-      <c r="L17" s="63" t="s">
+      <c r="L17" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="94"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
@@ -9571,14 +9467,14 @@
         <v>0</v>
       </c>
       <c r="K18" s="22"/>
-      <c r="L18" s="63" t="s">
+      <c r="L18" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="17"/>
@@ -9664,17 +9560,17 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
       <c r="K24" s="80" t="s">
         <v>57</v>
       </c>
@@ -9781,15 +9677,15 @@
         <f t="shared" ref="I27:I30" si="2">H27-0</f>
         <v>0</v>
       </c>
-      <c r="K27" s="67" t="s">
+      <c r="K27" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="69"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="79"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="17"/>
@@ -9815,15 +9711,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K28" s="67" t="s">
+      <c r="K28" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="69"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="79"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="17"/>
@@ -9849,15 +9745,15 @@
         <f>H29-0</f>
         <v>0</v>
       </c>
-      <c r="K29" s="67" t="s">
+      <c r="K29" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="L29" s="68"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="68"/>
-      <c r="O29" s="68"/>
-      <c r="P29" s="68"/>
-      <c r="Q29" s="69"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="79"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="17"/>
@@ -9883,55 +9779,55 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K30" s="67" t="s">
+      <c r="K30" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="69"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="79"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C31" s="4"/>
       <c r="I31" s="5"/>
-      <c r="K31" s="70" t="s">
+      <c r="K31" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="72"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="99"/>
+      <c r="P31" s="99"/>
+      <c r="Q31" s="100"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C32" s="4"/>
       <c r="I32" s="5"/>
-      <c r="K32" s="64" t="s">
+      <c r="K32" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="65"/>
-      <c r="O32" s="65"/>
-      <c r="P32" s="65"/>
-      <c r="Q32" s="66"/>
+      <c r="L32" s="96"/>
+      <c r="M32" s="96"/>
+      <c r="N32" s="96"/>
+      <c r="O32" s="96"/>
+      <c r="P32" s="96"/>
+      <c r="Q32" s="97"/>
     </row>
     <row r="33" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="F33" s="51" t="s">
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="F33" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="53"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="63"/>
     </row>
     <row r="34" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
@@ -9940,14 +9836,14 @@
       <c r="B34" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="46" t="s">
+      <c r="G34" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="H34" s="47"/>
-      <c r="I34" s="48"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="73"/>
     </row>
     <row r="35" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
@@ -9956,14 +9852,14 @@
       <c r="B35" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="46" t="s">
+      <c r="G35" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="47"/>
-      <c r="I35" s="48"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="73"/>
     </row>
     <row r="36" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
@@ -9972,14 +9868,14 @@
       <c r="B36" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="H36" s="47"/>
-      <c r="I36" s="48"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="73"/>
     </row>
     <row r="37" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
@@ -9988,14 +9884,14 @@
       <c r="B37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="46" t="s">
+      <c r="G37" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="47"/>
-      <c r="I37" s="48"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="73"/>
     </row>
     <row r="38" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
@@ -10004,8 +9900,8 @@
       <c r="B38" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
     </row>
     <row r="39" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10023,6 +9919,29 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="C34:D38"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
     <mergeCell ref="K8:Q8"/>
     <mergeCell ref="K9:Q9"/>
     <mergeCell ref="K27:Q27"/>
@@ -10032,29 +9951,6 @@
     <mergeCell ref="K25:Q25"/>
     <mergeCell ref="K26:Q26"/>
     <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="C34:D38"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A24:I24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C40" r:id="rId1" xr:uid="{DEFCB1FC-5A4C-4669-B8BE-6F0E263F6A35}"/>
